--- a/lib/files/users.xlsx
+++ b/lib/files/users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="310">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t xml:space="preserve">ficha2.mat@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Pettres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pettres@ufpr.br</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -2090,10 +2096,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2579,6 +2585,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="abel.s.siqueira@gmail.com"/>
@@ -2587,6 +2601,7 @@
     <hyperlink ref="B49" r:id="rId4" display="ricardopaleari@gmail.com"/>
     <hyperlink ref="B57" r:id="rId5" display="lauroz@ufpr.br"/>
     <hyperlink ref="B58" r:id="rId6" display="ficha2.mat@gmail.com"/>
+    <hyperlink ref="B59" r:id="rId7" display="pettres@ufpr.br"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2605,7 +2620,7 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
     </sheetView>
   </sheetViews>
@@ -2628,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>171</v>
@@ -2637,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F1" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>253</v>
@@ -2660,13 +2675,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>187</v>
@@ -2683,13 +2698,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>253</v>
@@ -2706,13 +2721,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F4" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>161</v>
@@ -2729,13 +2744,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F5" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,7 +2758,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>199</v>
@@ -2752,13 +2767,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2781,7 @@
         <v>118</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>185</v>
@@ -2775,13 +2790,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F7" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>239</v>
@@ -2798,13 +2813,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F8" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>161</v>
@@ -2821,13 +2836,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F9" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>199</v>
@@ -2844,13 +2859,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F10" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>215</v>
@@ -2867,13 +2882,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F11" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>241</v>
@@ -2890,13 +2905,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F12" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>247</v>
@@ -2913,13 +2928,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F13" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>235</v>
@@ -2936,13 +2951,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F14" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>237</v>
@@ -2961,7 +2976,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>259</v>
@@ -2970,19 +2985,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F16" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H16" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,7 +3005,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>203</v>
@@ -2999,19 +3014,19 @@
         <v>2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F17" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H17" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>259</v>
@@ -3028,19 +3043,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F18" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H18" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>195</v>
@@ -3057,19 +3072,19 @@
         <v>2</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F19" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H19" s="10" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>247</v>
@@ -3086,19 +3101,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F20" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H20" s="10" t="n">
         <v>4</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,7 +3121,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>227</v>
@@ -3115,19 +3130,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F21" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H21" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>173</v>
@@ -3144,19 +3159,19 @@
         <v>2</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F22" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H22" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3179,7 @@
         <v>116</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>209</v>
@@ -3173,19 +3188,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H23" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3193,7 +3208,7 @@
         <v>116</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>179</v>
@@ -3202,19 +3217,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F24" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H24" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>251</v>
@@ -3231,19 +3246,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F25" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H25" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>159</v>
@@ -3260,19 +3275,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F26" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H26" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,7 +3295,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>215</v>
@@ -3289,19 +3304,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F27" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H27" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,7 +3324,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>187</v>
@@ -3318,13 +3333,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F28" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,7 +3347,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>255</v>
@@ -3341,13 +3356,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F29" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>183</v>
@@ -3364,13 +3379,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F30" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,7 +3393,7 @@
         <v>116</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>173</v>
@@ -3387,19 +3402,19 @@
         <v>2</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F31" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H31" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3422,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>163</v>
@@ -3416,19 +3431,19 @@
         <v>2</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F32" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H32" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,7 +3451,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>213</v>
@@ -3445,13 +3460,13 @@
         <v>3</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F33" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>245</v>
@@ -3468,13 +3483,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F34" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,7 +3497,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>245</v>
@@ -3491,13 +3506,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F35" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>245</v>
@@ -3514,13 +3529,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F36" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>227</v>
@@ -3537,13 +3552,13 @@
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F37" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>225</v>
@@ -3560,13 +3575,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F38" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>171</v>
@@ -3583,13 +3598,13 @@
         <v>3</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F39" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +3612,7 @@
         <v>115</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>221</v>
@@ -3606,13 +3621,13 @@
         <v>3</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F40" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,7 +3635,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>177</v>
@@ -3629,13 +3644,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F41" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,7 +3658,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>163</v>
@@ -3652,13 +3667,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F42" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,7 +3681,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>207</v>
@@ -3675,13 +3690,13 @@
         <v>2</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F43" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,7 +3704,7 @@
         <v>32</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>239</v>
@@ -3698,13 +3713,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F44" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,7 +3727,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>167</v>
@@ -3721,13 +3736,13 @@
         <v>3</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F45" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>225</v>
@@ -3744,19 +3759,19 @@
         <v>3</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F46" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H46" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,7 +3779,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>225</v>
@@ -3773,19 +3788,19 @@
         <v>3</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F47" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H47" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,7 +3808,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>229</v>
@@ -3802,19 +3817,19 @@
         <v>3</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F48" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H48" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,7 +3837,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>201</v>
@@ -3831,13 +3846,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F49" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,7 +3860,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>265</v>
@@ -3854,13 +3869,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F50" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,7 +3883,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>219</v>
@@ -3877,13 +3892,13 @@
         <v>2</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F51" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,7 +3906,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>219</v>
@@ -3900,13 +3915,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F52" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,7 +3929,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>159</v>
@@ -3923,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F53" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,7 +3952,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>249</v>
@@ -3946,13 +3961,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F54" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +3975,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>211</v>
@@ -3969,13 +3984,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F55" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,7 +3998,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>207</v>
@@ -3992,13 +4007,13 @@
         <v>3</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F56" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +4021,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>205</v>
@@ -4015,19 +4030,19 @@
         <v>3</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F57" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H57" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,7 +4050,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>235</v>
@@ -4044,19 +4059,19 @@
         <v>3</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F58" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H58" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,7 +4079,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>167</v>
@@ -4073,13 +4088,13 @@
         <v>2</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F59" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,7 +4102,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>217</v>
@@ -4096,13 +4111,13 @@
         <v>3</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F60" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4125,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>217</v>
@@ -4119,13 +4134,13 @@
         <v>3</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F61" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>189</v>
@@ -4142,13 +4157,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F62" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,7 +4171,7 @@
         <v>78</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>205</v>
@@ -4165,13 +4180,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F63" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,7 +4194,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>181</v>
@@ -4188,13 +4203,13 @@
         <v>2</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F64" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4217,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>169</v>
@@ -4211,13 +4226,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F65" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,7 +4240,7 @@
         <v>84</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>185</v>
@@ -4234,13 +4249,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F66" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4263,7 @@
         <v>84</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>181</v>
@@ -4257,13 +4272,13 @@
         <v>3</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F67" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4286,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>177</v>
@@ -4280,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4303,7 @@
         <v>88</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>193</v>
@@ -4297,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,7 +4320,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>197</v>
@@ -4314,7 +4329,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4337,7 @@
         <v>92</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>267</v>
@@ -4331,19 +4346,19 @@
         <v>3</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F71" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H71" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,7 +4366,7 @@
         <v>92</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>183</v>
@@ -4360,19 +4375,19 @@
         <v>2</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F72" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H72" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,7 +4395,7 @@
         <v>93</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>229</v>
@@ -4389,13 +4404,13 @@
         <v>3</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F73" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,7 +4418,7 @@
         <v>95</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>189</v>
@@ -4412,13 +4427,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F74" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,7 +4441,7 @@
         <v>97</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>223</v>
@@ -4435,13 +4450,13 @@
         <v>2</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F75" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,7 +4464,7 @@
         <v>97</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>209</v>
@@ -4458,13 +4473,13 @@
         <v>3</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F76" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,7 +4487,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>223</v>
@@ -4481,13 +4496,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F77" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,7 +4510,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>193</v>
@@ -4504,13 +4519,13 @@
         <v>4</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F78" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4533,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>253</v>
@@ -4527,13 +4542,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F79" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,7 +4556,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>191</v>
@@ -4550,13 +4565,13 @@
         <v>2</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F80" s="11" t="n">
         <v>4</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,7 +4579,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>191</v>
@@ -4573,13 +4588,13 @@
         <v>3</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F81" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,7 +4602,7 @@
         <v>101</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>191</v>
@@ -4596,13 +4611,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F82" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,7 +4625,7 @@
         <v>103</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>241</v>
@@ -4619,13 +4634,13 @@
         <v>3</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F83" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,7 +4648,7 @@
         <v>105</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>231</v>
@@ -4642,13 +4657,13 @@
         <v>5</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F84" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,7 +4671,7 @@
         <v>105</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>231</v>
@@ -4665,13 +4680,13 @@
         <v>5</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F85" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,7 +4694,7 @@
         <v>105</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>263</v>
@@ -4688,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4711,7 @@
         <v>105</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>263</v>
@@ -4705,7 +4720,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4728,7 @@
         <v>105</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>257</v>
@@ -4722,7 +4737,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,7 +4745,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>257</v>
@@ -4739,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,7 +4762,7 @@
         <v>107</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>221</v>
@@ -4756,13 +4771,13 @@
         <v>4</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F90" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,7 +4785,7 @@
         <v>107</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>221</v>
@@ -4779,13 +4794,13 @@
         <v>3</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F91" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4793,7 +4808,7 @@
         <v>111</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>165</v>
@@ -4802,13 +4817,13 @@
         <v>2</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F92" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,7 +4831,7 @@
         <v>111</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>165</v>
@@ -4825,13 +4840,13 @@
         <v>2</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F93" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,7 +4854,7 @@
         <v>111</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>175</v>
@@ -4848,13 +4863,13 @@
         <v>2</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F94" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,7 +4877,7 @@
         <v>111</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>175</v>
@@ -4871,13 +4886,13 @@
         <v>2</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F95" s="11" t="n">
         <v>5</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,7 +4900,7 @@
         <v>142</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>237</v>
@@ -4896,7 +4911,7 @@
         <v>144</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>201</v>
@@ -4907,7 +4922,7 @@
         <v>26</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>201</v>
@@ -4918,7 +4933,7 @@
         <v>146</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>195</v>
@@ -4929,7 +4944,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>249</v>
@@ -4940,7 +4955,7 @@
         <v>150</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>251</v>
@@ -4951,7 +4966,7 @@
         <v>152</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>241</v>
@@ -4962,7 +4977,7 @@
         <v>153</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>239</v>
@@ -4973,7 +4988,7 @@
         <v>155</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>211</v>
@@ -4984,7 +4999,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>169</v>
@@ -4995,7 +5010,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>213</v>
@@ -5006,7 +5021,7 @@
         <v>137</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>165</v>
@@ -5017,7 +5032,7 @@
         <v>140</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>261</v>
@@ -5054,18 +5069,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
